--- a/data_year/zb/就业人员和工资/按经济类型分城镇就业人员.xlsx
+++ b/data_year/zb/就业人员和工资/按经济类型分城镇就业人员.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,838 +493,494 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2136</v>
+        <v>4467</v>
       </c>
       <c r="C2" t="n">
-        <v>8101.8623</v>
+        <v>6516.4379</v>
       </c>
       <c r="D2" t="n">
-        <v>23151</v>
+        <v>34687</v>
       </c>
       <c r="E2" t="n">
-        <v>1499.3089</v>
+        <v>597.496</v>
       </c>
       <c r="F2" t="n">
-        <v>332</v>
+        <v>1053</v>
       </c>
       <c r="G2" t="n">
-        <v>687</v>
+        <v>2613</v>
       </c>
       <c r="H2" t="n">
-        <v>310</v>
+        <v>770</v>
       </c>
       <c r="I2" t="n">
-        <v>1268</v>
+        <v>6071</v>
       </c>
       <c r="J2" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K2" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L2" t="n">
-        <v>457</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2131</v>
+        <v>5227</v>
       </c>
       <c r="C3" t="n">
-        <v>7639.9101</v>
+        <v>6704.1993</v>
       </c>
       <c r="D3" t="n">
-        <v>24123</v>
+        <v>36003</v>
       </c>
       <c r="E3" t="n">
-        <v>1291.0455</v>
+        <v>603.0617</v>
       </c>
       <c r="F3" t="n">
-        <v>345</v>
+        <v>1217</v>
       </c>
       <c r="G3" t="n">
-        <v>841</v>
+        <v>3269</v>
       </c>
       <c r="H3" t="n">
-        <v>326</v>
+        <v>932</v>
       </c>
       <c r="I3" t="n">
-        <v>1527</v>
+        <v>6912</v>
       </c>
       <c r="J3" t="n">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="K3" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="L3" t="n">
-        <v>483</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2269</v>
+        <v>5643</v>
       </c>
       <c r="C4" t="n">
-        <v>7162.9376</v>
+        <v>6839.0322</v>
       </c>
       <c r="D4" t="n">
-        <v>25159</v>
+        <v>37287</v>
       </c>
       <c r="E4" t="n">
-        <v>1121.9637</v>
+        <v>589.6674</v>
       </c>
       <c r="F4" t="n">
-        <v>391</v>
+        <v>1246</v>
       </c>
       <c r="G4" t="n">
-        <v>1083</v>
+        <v>3787</v>
       </c>
       <c r="H4" t="n">
-        <v>367</v>
+        <v>969</v>
       </c>
       <c r="I4" t="n">
-        <v>1999</v>
+        <v>7557</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K4" t="n">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="L4" t="n">
-        <v>538</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2377</v>
+        <v>6142</v>
       </c>
       <c r="C5" t="n">
-        <v>6875.5671</v>
+        <v>6365.1039</v>
       </c>
       <c r="D5" t="n">
-        <v>26230</v>
+        <v>38527</v>
       </c>
       <c r="E5" t="n">
-        <v>999.867</v>
+        <v>566.1703</v>
       </c>
       <c r="F5" t="n">
-        <v>454</v>
+        <v>1566</v>
       </c>
       <c r="G5" t="n">
-        <v>1261</v>
+        <v>6069</v>
       </c>
       <c r="H5" t="n">
-        <v>409</v>
+        <v>1397</v>
       </c>
       <c r="I5" t="n">
-        <v>2545</v>
+        <v>8242</v>
       </c>
       <c r="J5" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="L5" t="n">
-        <v>592</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2521</v>
+        <v>7009</v>
       </c>
       <c r="C6" t="n">
-        <v>6709.9251</v>
+        <v>6312.3127</v>
       </c>
       <c r="D6" t="n">
-        <v>27293</v>
+        <v>39703</v>
       </c>
       <c r="E6" t="n">
-        <v>897.1599</v>
+        <v>536.7103</v>
       </c>
       <c r="F6" t="n">
-        <v>563</v>
+        <v>1562.0827</v>
       </c>
       <c r="G6" t="n">
-        <v>1436</v>
+        <v>6315.131</v>
       </c>
       <c r="H6" t="n">
-        <v>470</v>
+        <v>1392.8339</v>
       </c>
       <c r="I6" t="n">
-        <v>2994</v>
+        <v>9857</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>22.1159</v>
       </c>
       <c r="K6" t="n">
-        <v>192</v>
+        <v>103.2483</v>
       </c>
       <c r="L6" t="n">
-        <v>625</v>
+        <v>1751.1618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2778</v>
+        <v>7800</v>
       </c>
       <c r="C7" t="n">
-        <v>6488.199</v>
+        <v>6208.2666</v>
       </c>
       <c r="D7" t="n">
-        <v>28389</v>
+        <v>40916</v>
       </c>
       <c r="E7" t="n">
-        <v>809.9329</v>
+        <v>481.4449</v>
       </c>
       <c r="F7" t="n">
-        <v>688</v>
+        <v>1445.8524</v>
       </c>
       <c r="G7" t="n">
-        <v>1750</v>
+        <v>6389.3861</v>
       </c>
       <c r="H7" t="n">
-        <v>557</v>
+        <v>1343.9148</v>
       </c>
       <c r="I7" t="n">
-        <v>3458.4308</v>
+        <v>11180</v>
       </c>
       <c r="J7" t="n">
-        <v>45</v>
+        <v>20.2601</v>
       </c>
       <c r="K7" t="n">
-        <v>188</v>
+        <v>91.6651</v>
       </c>
       <c r="L7" t="n">
-        <v>699</v>
+        <v>1797.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3012</v>
+        <v>8627</v>
       </c>
       <c r="C8" t="n">
-        <v>6430.4735</v>
+        <v>6170</v>
       </c>
       <c r="D8" t="n">
-        <v>29630</v>
+        <v>42051</v>
       </c>
       <c r="E8" t="n">
-        <v>763.6301</v>
+        <v>453</v>
       </c>
       <c r="F8" t="n">
-        <v>796</v>
+        <v>1361</v>
       </c>
       <c r="G8" t="n">
-        <v>1920</v>
+        <v>6381</v>
       </c>
       <c r="H8" t="n">
-        <v>611</v>
+        <v>1305</v>
       </c>
       <c r="I8" t="n">
-        <v>3954</v>
+        <v>12083</v>
       </c>
       <c r="J8" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="K8" t="n">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="L8" t="n">
-        <v>741</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3310</v>
+        <v>9348</v>
       </c>
       <c r="C9" t="n">
-        <v>6423.5494</v>
+        <v>6064</v>
       </c>
       <c r="D9" t="n">
-        <v>30953</v>
+        <v>43208</v>
       </c>
       <c r="E9" t="n">
-        <v>718.4366</v>
+        <v>406</v>
       </c>
       <c r="F9" t="n">
-        <v>903</v>
+        <v>1291.4683</v>
       </c>
       <c r="G9" t="n">
-        <v>2075</v>
+        <v>6367.0996</v>
       </c>
       <c r="H9" t="n">
-        <v>680</v>
+        <v>1289.9759</v>
       </c>
       <c r="I9" t="n">
-        <v>4581</v>
+        <v>13327</v>
       </c>
       <c r="J9" t="n">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="K9" t="n">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="L9" t="n">
-        <v>788</v>
+        <v>1845.9953</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3609</v>
+        <v>10440</v>
       </c>
       <c r="C10" t="n">
-        <v>6447.0331</v>
+        <v>5739.7053</v>
       </c>
       <c r="D10" t="n">
-        <v>32103</v>
+        <v>44292</v>
       </c>
       <c r="E10" t="n">
-        <v>661.8208</v>
+        <v>347.3982</v>
       </c>
       <c r="F10" t="n">
-        <v>943</v>
+        <v>1211.6511</v>
       </c>
       <c r="G10" t="n">
-        <v>2194</v>
+        <v>6554.56</v>
       </c>
       <c r="H10" t="n">
-        <v>679</v>
+        <v>1153.4703</v>
       </c>
       <c r="I10" t="n">
-        <v>5124</v>
+        <v>13952</v>
       </c>
       <c r="J10" t="n">
-        <v>43</v>
+        <v>11.9583</v>
       </c>
       <c r="K10" t="n">
-        <v>164</v>
+        <v>66.2651</v>
       </c>
       <c r="L10" t="n">
-        <v>840</v>
+        <v>1874.9244</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4245</v>
+        <v>11691.5858</v>
       </c>
       <c r="C11" t="n">
-        <v>6420.1597</v>
+        <v>5472.6668</v>
       </c>
       <c r="D11" t="n">
-        <v>33322</v>
+        <v>45249</v>
       </c>
       <c r="E11" t="n">
-        <v>618.1304</v>
+        <v>295.6216</v>
       </c>
       <c r="F11" t="n">
-        <v>978</v>
+        <v>1202.9792</v>
       </c>
       <c r="G11" t="n">
-        <v>2433</v>
+        <v>6607.632</v>
       </c>
       <c r="H11" t="n">
-        <v>721</v>
+        <v>1157.4718</v>
       </c>
       <c r="I11" t="n">
-        <v>5544</v>
+        <v>14566.6494</v>
       </c>
       <c r="J11" t="n">
-        <v>37</v>
+        <v>12.3661</v>
       </c>
       <c r="K11" t="n">
-        <v>160</v>
+        <v>60.3928</v>
       </c>
       <c r="L11" t="n">
-        <v>956</v>
+        <v>1879.4602</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>4467</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>6516.4379</v>
+        <v>5562.9765279</v>
       </c>
       <c r="D12" t="n">
-        <v>34687</v>
+        <v>46271</v>
       </c>
       <c r="E12" t="n">
-        <v>597.496</v>
+        <v>271.2112086</v>
       </c>
       <c r="F12" t="n">
-        <v>1053</v>
+        <v>1215.860735</v>
       </c>
       <c r="G12" t="n">
-        <v>2613</v>
+        <v>6542.3019806</v>
       </c>
       <c r="H12" t="n">
-        <v>770</v>
-      </c>
-      <c r="I12" t="n">
-        <v>6071</v>
-      </c>
+        <v>1158.6265838</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>36</v>
+        <v>25.4665848</v>
       </c>
       <c r="K12" t="n">
-        <v>156</v>
+        <v>68.7841566</v>
       </c>
       <c r="L12" t="n">
-        <v>1024</v>
+        <v>1836.6447028</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>5227</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>6704.1993</v>
+        <v>5633.0788457</v>
       </c>
       <c r="D13" t="n">
-        <v>36003</v>
+        <v>46773</v>
       </c>
       <c r="E13" t="n">
-        <v>603.0617</v>
+        <v>261.6741314</v>
       </c>
       <c r="F13" t="n">
-        <v>1217</v>
+        <v>1219.8332631</v>
       </c>
       <c r="G13" t="n">
-        <v>3269</v>
+        <v>6525.7890094</v>
       </c>
       <c r="H13" t="n">
-        <v>932</v>
-      </c>
-      <c r="I13" t="n">
-        <v>6912</v>
-      </c>
+        <v>1175.196033</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>37</v>
+        <v>22.3400318</v>
       </c>
       <c r="K13" t="n">
-        <v>149</v>
+        <v>61.7619753</v>
       </c>
       <c r="L13" t="n">
-        <v>1183</v>
+        <v>1789.2168534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5643</v>
-      </c>
-      <c r="C14" t="n">
-        <v>6839.0322</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="n">
-        <v>37287</v>
-      </c>
-      <c r="E14" t="n">
-        <v>589.6674</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1246</v>
-      </c>
-      <c r="G14" t="n">
-        <v>3787</v>
-      </c>
-      <c r="H14" t="n">
-        <v>969</v>
-      </c>
-      <c r="I14" t="n">
-        <v>7557</v>
-      </c>
-      <c r="J14" t="n">
-        <v>39</v>
-      </c>
-      <c r="K14" t="n">
-        <v>149</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>6142</v>
-      </c>
-      <c r="C15" t="n">
-        <v>6365.1039</v>
-      </c>
-      <c r="D15" t="n">
-        <v>38527</v>
-      </c>
-      <c r="E15" t="n">
-        <v>566.1703</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1566</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6069</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1397</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8242</v>
-      </c>
-      <c r="J15" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" t="n">
-        <v>108</v>
-      </c>
-      <c r="L15" t="n">
-        <v>1721</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>7009</v>
-      </c>
-      <c r="C16" t="n">
-        <v>6312.3127</v>
-      </c>
-      <c r="D16" t="n">
-        <v>39703</v>
-      </c>
-      <c r="E16" t="n">
-        <v>536.7103</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1562.0827</v>
-      </c>
-      <c r="G16" t="n">
-        <v>6315.131</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1392.8339</v>
-      </c>
-      <c r="I16" t="n">
-        <v>9857</v>
-      </c>
-      <c r="J16" t="n">
-        <v>22.1159</v>
-      </c>
-      <c r="K16" t="n">
-        <v>103.2483</v>
-      </c>
-      <c r="L16" t="n">
-        <v>1751.1618</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>7800</v>
-      </c>
-      <c r="C17" t="n">
-        <v>6208.2666</v>
-      </c>
-      <c r="D17" t="n">
-        <v>40916</v>
-      </c>
-      <c r="E17" t="n">
-        <v>481.4449</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1445.8524</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6389.3861</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1343.9148</v>
-      </c>
-      <c r="I17" t="n">
-        <v>11180</v>
-      </c>
-      <c r="J17" t="n">
-        <v>20.2601</v>
-      </c>
-      <c r="K17" t="n">
-        <v>91.6651</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1797.95</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>8627</v>
-      </c>
-      <c r="C18" t="n">
-        <v>6170</v>
-      </c>
-      <c r="D18" t="n">
-        <v>42051</v>
-      </c>
-      <c r="E18" t="n">
-        <v>453</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1361</v>
-      </c>
-      <c r="G18" t="n">
-        <v>6381</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1305</v>
-      </c>
-      <c r="I18" t="n">
-        <v>12083</v>
-      </c>
-      <c r="J18" t="n">
-        <v>18</v>
-      </c>
-      <c r="K18" t="n">
-        <v>86</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1824</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>9348</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6064</v>
-      </c>
-      <c r="D19" t="n">
-        <v>43208</v>
-      </c>
-      <c r="E19" t="n">
-        <v>406</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1291.4683</v>
-      </c>
-      <c r="G19" t="n">
-        <v>6367.0996</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1289.9759</v>
-      </c>
-      <c r="I19" t="n">
-        <v>13327</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13</v>
-      </c>
-      <c r="K19" t="n">
-        <v>77</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1845.9953</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>10440</v>
-      </c>
-      <c r="C20" t="n">
-        <v>5739.7053</v>
-      </c>
-      <c r="D20" t="n">
-        <v>44292</v>
-      </c>
-      <c r="E20" t="n">
-        <v>347.3982</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1211.6511</v>
-      </c>
-      <c r="G20" t="n">
-        <v>6554.56</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1153.4703</v>
-      </c>
-      <c r="I20" t="n">
-        <v>13952</v>
-      </c>
-      <c r="J20" t="n">
-        <v>11.9583</v>
-      </c>
-      <c r="K20" t="n">
-        <v>66.2651</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1874.9244</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>11691.5858</v>
-      </c>
-      <c r="C21" t="n">
-        <v>5472.6668</v>
-      </c>
-      <c r="D21" t="n">
-        <v>45249</v>
-      </c>
-      <c r="E21" t="n">
-        <v>295.6216</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1202.9792</v>
-      </c>
-      <c r="G21" t="n">
-        <v>6607.632</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1157.4718</v>
-      </c>
-      <c r="I21" t="n">
-        <v>14566.6494</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12.3661</v>
-      </c>
-      <c r="K21" t="n">
-        <v>60.3928</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1879.4602</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
-        <v>5562.9765279</v>
-      </c>
-      <c r="D22" t="n">
-        <v>46271</v>
-      </c>
-      <c r="E22" t="n">
-        <v>271.2112086</v>
-      </c>
-      <c r="F22" t="n">
-        <v>1215.860735</v>
-      </c>
-      <c r="G22" t="n">
-        <v>6542.3019806</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1158.6265838</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>25.4665848</v>
-      </c>
-      <c r="K22" t="n">
-        <v>68.7841566</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1836.6447028</v>
-      </c>
+        <v>45931</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
